--- a/00_additional_data/COS_chambers_logbook.xlsx
+++ b/00_additional_data/COS_chambers_logbook.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasminl\Dropbox (Weizmann Institute)\Ecophysiology group\Yasmin\Work with Jonathan on soil-branch transition 21_01_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Laser-chamber-fluxes\00_additional_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9EB6E3-173A-4DB5-BD5B-83C06022E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{181E117E-E3EA-468D-9F63-1BE0EA3C06C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="logbook" sheetId="1" r:id="rId1"/>
-    <sheet name="flow" sheetId="2" r:id="rId2"/>
+    <sheet name="Soil" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -47,22 +45,43 @@
     <t>day</t>
   </si>
   <si>
-    <t>0= chamber did not work</t>
-  </si>
-  <si>
-    <t>empty= chamber worked properly</t>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>end time</t>
+  </si>
+  <si>
+    <t>0.0 when branch not measured, start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
   </si>
   <si>
     <t>4 is irrigation</t>
   </si>
   <si>
     <t>16 is control</t>
+  </si>
+  <si>
+    <t>s_irr3</t>
+  </si>
+  <si>
+    <t>s_con4</t>
+  </si>
+  <si>
+    <t>b_irr1</t>
+  </si>
+  <si>
+    <t>b_con2</t>
+  </si>
+  <si>
+    <t>s_irr5</t>
+  </si>
+  <si>
+    <t>s_con6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -104,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,6 +134,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +169,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -161,7 +181,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,23 +228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,16 +414,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAF9E9D-E7A7-4AEA-9A1F-581ABAEACAB8}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,17 +433,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -468,12 +469,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="M2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
@@ -485,11 +499,23 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -499,15 +525,24 @@
       <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -517,11 +552,21 @@
       <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -531,33 +576,26 @@
       <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE468D9A-AB93-43E1-BAFE-55A7C77B1DA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00_additional_data/COS_chambers_logbook.xlsx
+++ b/00_additional_data/COS_chambers_logbook.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Soil" sheetId="1" r:id="rId1"/>
+    <sheet name="chambers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -51,15 +51,6 @@
     <t>end time</t>
   </si>
   <si>
-    <t>0.0 when branch not measured, start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
-  </si>
-  <si>
-    <t>4 is irrigation</t>
-  </si>
-  <si>
-    <t>16 is control</t>
-  </si>
-  <si>
     <t>s_irr3</t>
   </si>
   <si>
@@ -76,6 +67,18 @@
   </si>
   <si>
     <t>s_con6</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>0 = chamber did not work</t>
+  </si>
+  <si>
+    <t>&gt;0 chamber worked with the flow in slpm</t>
+  </si>
+  <si>
+    <t>start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +138,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,22 +440,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -457,8 +463,11 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -483,11 +492,11 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="3"/>
-      <c r="M2" t="s">
-        <v>5</v>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
@@ -511,11 +520,11 @@
       <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -538,11 +547,11 @@
       <c r="J4" s="4">
         <v>0.72083333333333333</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>7</v>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -565,8 +574,9 @@
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -589,10 +599,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="1"/>
+      <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
+      <c r="L7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
